--- a/Fizyka_Sprawka/Lab2_Cw57c/V3_Finished.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/V3_Finished.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="3" r:id="rId1"/>
     <sheet name="V2" sheetId="4" r:id="rId2"/>
     <sheet name="V3_and_main" sheetId="1" r:id="rId3"/>
     <sheet name="V4_i_V5_Regresja_liniowa" sheetId="6" r:id="rId4"/>
+    <sheet name="V8-niepewnosc czul polowej" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Lp</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Współczynnik Korelacji Liniowej</t>
   </si>
   <si>
-    <t>V6</t>
-  </si>
-  <si>
     <t>Wartosci z Programu z Lpf( Wyskoczyl blad)</t>
   </si>
   <si>
@@ -115,6 +113,33 @@
   <si>
     <t>Niepewność cząstkowa dla pomiaru Uh ma największy udział, jest ona większa o średnio 6 rzędów wielkości.</t>
   </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V5 i V6</t>
+  </si>
+  <si>
+    <t>Czułość polowa</t>
+  </si>
+  <si>
+    <t>Uh Max</t>
+  </si>
+  <si>
+    <t>Uh Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta Uh = </t>
+  </si>
+  <si>
+    <t>Bn Max</t>
+  </si>
+  <si>
+    <t>Bn Min</t>
+  </si>
+  <si>
+    <t>delta Bn</t>
+  </si>
 </sst>
 </file>
 
@@ -124,9 +149,9 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000000000000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -384,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -414,9 +439,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,12 +485,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,6 +960,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1045,6 +1084,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17940,11 +17980,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>658232</xdr:colOff>
+      <xdr:colOff>543932</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:rowOff>186418</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="397929" cy="172227"/>
+    <xdr:ext cx="516167" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -17954,8 +17994,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8002007" y="176893"/>
-              <a:ext cx="397929" cy="172227"/>
+              <a:off x="7887707" y="186418"/>
+              <a:ext cx="516167" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18054,7 +18094,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑉</m:t>
+                      <m:t>𝑚𝑉</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -18084,8 +18124,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8002007" y="176893"/>
-              <a:ext cx="397929" cy="172227"/>
+              <a:off x="7887707" y="186418"/>
+              <a:ext cx="516167" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18147,7 +18187,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐻 [𝑉]</a:t>
+                <a:t>𝐻 [𝑚𝑉]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -25167,8 +25207,8 @@
       <xdr:rowOff>1395</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6385692" cy="338959"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -25657,7 +25697,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -25836,8 +25876,8 @@
       <xdr:rowOff>126206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2423420" cy="243849"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -26004,7 +26044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -26081,8 +26121,8 @@
       <xdr:rowOff>22949</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="597279" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -26209,7 +26249,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -26276,8 +26316,8 @@
       <xdr:rowOff>45572</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6037487" cy="338959"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -26760,7 +26800,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -27033,8 +27073,8 @@
       <xdr:rowOff>103913</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2444836" cy="243849"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -27201,7 +27241,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -27278,8 +27318,8 @@
       <xdr:rowOff>195178</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6051803" cy="435853"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -28550,7 +28590,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -29337,8 +29377,8 @@
       <xdr:rowOff>191322</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7765134" cy="463522"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27"/>
@@ -30531,7 +30571,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27"/>
@@ -31237,8 +31277,8 @@
       <xdr:rowOff>58711</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3906892" cy="477071"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28"/>
@@ -32282,7 +32322,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28"/>
@@ -32907,9 +32947,9 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>174282</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9297864" cy="1844864"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="9297864" cy="2017091"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -32918,7 +32958,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="16608570"/>
-              <a:ext cx="9297864" cy="1844864"/>
+              <a:ext cx="9297864" cy="2017091"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -34530,7 +34570,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -34559,7 +34599,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -34618,7 +34658,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -34645,7 +34685,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -34674,7 +34714,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -34701,7 +34741,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -34780,7 +34820,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -34795,7 +34835,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -34811,7 +34851,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -34848,7 +34888,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -34877,7 +34917,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -34893,7 +34933,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -34908,7 +34948,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -34950,6 +34990,40 @@
                 </a:rPr>
                 <a:t>=0.18738769824823656561485538259462</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>=0.19</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>[mV/(mA*mT)]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -34979,7 +35053,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -34988,7 +35062,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="16608570"/>
-              <a:ext cx="9297864" cy="1844864"/>
+              <a:ext cx="9297864" cy="2017091"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -35812,11 +35886,47 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>█(0.00432746352016274820010825507011</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -35824,11 +35934,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>█(</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗0.00001875</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" @</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -35836,11 +35970,47 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>0.00432746352016274820010825507011"</a:t>
+                <a:t>"0.000000624167630757665</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∗1.69</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -35855,16 +36025,40 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" @</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+0.10533904041565892361293299524481</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∗0.00001875</a:t>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -35876,7 +36070,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  </a:t>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -35884,23 +36102,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" @</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>+"0.000000624167630757665" ∗1.69"</a:t>
+                <a:t>0.33333333333 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -35908,95 +36114,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" @</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+0.10533904041565892361293299524481"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" ∗"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0.33333333333 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ))</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="1">
                 <a:solidFill>
@@ -36032,7 +36154,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -36044,7 +36166,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -36056,7 +36178,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -36079,28 +36201,83 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" @</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.00000105484329598045385</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" @+0.03511301347153517773625880200289))=</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" @</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+"0.00000105484329598045385" @+0.03511301347153517773625880200289))=</a:t>
+                <a:t>"0.03511414945477216124160880200289</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -36108,29 +36285,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√("0.03511414945477216124160880200289</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US">
@@ -36138,6 +36297,40 @@
                 </a:rPr>
                 <a:t>=0.18738769824823656561485538259462</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>=0.19</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>[mV/(mA*mT)]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -36178,8 +36371,8 @@
       <xdr:rowOff>1190</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4454296" cy="349968"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -36215,6 +36408,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -36244,7 +36438,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36257,7 +36451,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36269,7 +36463,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36283,7 +36477,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36297,7 +36491,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -36310,7 +36504,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -36324,7 +36518,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -36370,7 +36564,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -36383,7 +36577,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -36397,7 +36591,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36410,7 +36604,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36424,7 +36618,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -36438,7 +36632,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -36452,7 +36646,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -36466,7 +36660,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -36486,7 +36680,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -36682,8 +36876,8 @@
       <xdr:rowOff>7144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3467488" cy="267702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -36729,7 +36923,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36742,7 +36936,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36756,7 +36950,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36769,7 +36963,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36781,7 +36975,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36795,7 +36989,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36809,7 +37003,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -36822,7 +37016,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -36836,7 +37030,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -36852,7 +37046,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36866,7 +37060,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36890,7 +37084,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36903,7 +37097,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36917,7 +37111,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36930,7 +37124,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36944,7 +37138,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -36958,7 +37152,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -36972,7 +37166,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -37021,7 +37215,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -37243,8 +37437,8 @@
       <xdr:rowOff>167879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4496167" cy="349070"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -37280,6 +37474,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -37294,7 +37489,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37307,7 +37502,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37321,7 +37516,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37334,7 +37529,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37346,7 +37541,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37360,7 +37555,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37374,7 +37569,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -37387,7 +37582,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -37401,7 +37596,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -37417,7 +37612,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37431,7 +37626,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37459,7 +37654,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37472,7 +37667,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37484,7 +37679,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37498,7 +37693,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37511,7 +37706,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37525,7 +37720,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37539,7 +37734,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37553,7 +37748,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37581,7 +37776,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -37813,8 +38008,8 @@
       <xdr:rowOff>126206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4302845" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -37850,6 +38045,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -37877,7 +38073,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37889,7 +38085,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37903,7 +38099,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37916,7 +38112,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37930,7 +38126,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -37944,7 +38140,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37986,7 +38182,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -37999,7 +38195,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38013,7 +38209,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38063,7 +38259,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -38215,8 +38411,8 @@
       <xdr:rowOff>25003</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2661047" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -38252,6 +38448,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -38266,7 +38463,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38279,7 +38476,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38291,7 +38488,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38303,7 +38500,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38317,7 +38514,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -38330,7 +38527,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -38344,7 +38541,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -38358,7 +38555,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38370,7 +38567,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38384,7 +38581,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38412,7 +38609,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38425,7 +38622,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38461,7 +38658,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38475,7 +38672,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -38503,7 +38700,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -38681,8 +38878,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5023247" cy="207169"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -38745,7 +38942,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38758,7 +38955,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38770,7 +38967,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38782,7 +38979,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38796,7 +38993,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -38809,7 +39006,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -38823,7 +39020,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -38837,7 +39034,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38849,7 +39046,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38863,7 +39060,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38891,7 +39088,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38904,7 +39101,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38940,7 +39137,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38954,7 +39151,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38968,7 +39165,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -38989,7 +39186,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -39201,6 +39398,4219 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260747</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="622158" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="867966" y="207169"/>
+              <a:ext cx="622158" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∆</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑈</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐻</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∆</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="867966" y="207169"/>
+              <a:ext cx="622158" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐵=〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝑈〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="482312" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1214438" y="762000"/>
+              <a:ext cx="482312" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑀𝑎𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1214438" y="762000"/>
+              <a:ext cx="482312" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑈_𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑀𝑎𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="452368" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1214438" y="952500"/>
+              <a:ext cx="452368" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑀𝑖𝑛</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1214438" y="952500"/>
+              <a:ext cx="452368" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑈_𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑀𝑖𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="377539" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2457450" y="790576"/>
+              <a:ext cx="377539" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐵</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> Max</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2457450" y="790576"/>
+              <a:ext cx="377539" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> Max</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32147</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="355354" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461022" y="966788"/>
+              <a:ext cx="355354" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐵</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> Min</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461022" y="966788"/>
+              <a:ext cx="355354" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> Min</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="212301" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2428875" y="1143000"/>
+              <a:ext cx="212301" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2428875" y="1143000"/>
+              <a:ext cx="212301" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="290528" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1214438" y="1143000"/>
+              <a:ext cx="290528" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∆</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1214438" y="1143000"/>
+              <a:ext cx="290528" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖∆𝑈〗_𝐻</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2390719" cy="285751"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1262065" y="1369218"/>
+              <a:ext cx="2390719" cy="285751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>∆</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑈</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐻</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>∆</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>352.08</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.996562427</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>353.2944756</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1262065" y="1369218"/>
+              <a:ext cx="2390719" cy="285751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝑈〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=352.08/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.996562427</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>353.2944756</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7504043" cy="672364"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="321469" y="1774032"/>
+              <a:ext cx="7504043" cy="672364"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝛾</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝛾</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐵</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>∆</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑈</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐻</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>∆</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑈</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐻</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>))</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝛾</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐵</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>∆</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐵</m:t>
+                                </m:r>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:nor/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US">
+                                    <a:effectLst/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∆</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                            <m:r>
+                              <m:rPr>
+                                <m:nor/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>))</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="321469" y="1774032"/>
+              <a:ext cx="7504043" cy="672364"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖∆𝑈〗_𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖∆𝑈〗_𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>))〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"  𝑢(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120253</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2421562" cy="439287"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="729853" y="2495550"/>
+              <a:ext cx="2421562" cy="439287"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝛾</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐵</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∆</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑈</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐻</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>∆</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.996562427</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1.003449431</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="729853" y="2495550"/>
+              <a:ext cx="2421562" cy="439287"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(ⅆ𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖∆𝑈〗_𝐻 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.996562427</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1.003449431</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2764283" cy="265970"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="736621" y="2928937"/>
+              <a:ext cx="2764283" cy="265970"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝛾</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐵</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>∆</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=−</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∆</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑈</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐻</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:num>
+                    <m:den>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∆</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐵</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>−</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>352.08</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.993136671</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="pl-PL" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>-</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>354.5131404</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="736621" y="2928937"/>
+              <a:ext cx="2764283" cy="265970"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(ⅆ𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖∆𝑈〗_𝐻/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"352.08</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" /</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.993136671</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>-</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>354.5131404</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -39529,7 +43939,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39600,13 +44010,13 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39621,8 +44031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="J45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39729,13 +44139,15 @@
         <f>RADIANS(I3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="37">
         <v>2.8867513460000001</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="40">
         <v>-3.0873747999999999E-2</v>
       </c>
-      <c r="M3" s="18"/>
+      <c r="M3" s="40">
+        <v>0.19</v>
+      </c>
       <c r="N3" s="18">
         <f t="shared" ref="N3:N38" si="1">SIN(J3-3.05)</f>
         <v>-9.1464642232437193E-2</v>
@@ -39757,10 +44169,10 @@
         <v>4.1318092467553598</v>
       </c>
       <c r="S3" s="17"/>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="36">
         <v>5</v>
       </c>
     </row>
@@ -39794,9 +44206,9 @@
         <f>RADIANS(I4)</f>
         <v>0.17453292519943295</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="18"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="18">
         <f t="shared" si="1"/>
         <v>-0.2629953896587589</v>
@@ -39818,8 +44230,8 @@
         <v>3.8784726042426336</v>
       </c>
       <c r="S4" s="17"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -39851,9 +44263,9 @@
         <f>RADIANS(I5)</f>
         <v>0.3490658503988659</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="18"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="18">
         <f t="shared" si="1"/>
         <v>-0.42653515525238817</v>
@@ -39875,8 +44287,8 @@
         <v>3.4086156722242342</v>
       </c>
       <c r="S5" s="17"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="29"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -39908,9 +44320,9 @@
         <f>RADIANS(I6)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="18"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="18">
         <f t="shared" si="1"/>
         <v>-0.57711486599087614</v>
@@ -39933,7 +44345,7 @@
       </c>
       <c r="S6" s="17"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="29"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
@@ -39965,9 +44377,9 @@
         <f t="shared" ref="J7:J15" si="6">RADIANS(I7)</f>
         <v>0.69813170079773179</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="18">
         <f t="shared" si="1"/>
         <v>-0.71015923356044475</v>
@@ -39989,7 +44401,7 @@
         <v>2.0653077624534948</v>
       </c>
       <c r="S7" s="17"/>
-      <c r="V7" s="29">
+      <c r="V7" s="36">
         <v>352.5</v>
       </c>
     </row>
@@ -40023,9 +44435,9 @@
         <f t="shared" si="6"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="18">
         <f t="shared" si="1"/>
         <v>-0.82162577217619037</v>
@@ -40047,7 +44459,7 @@
         <v>1.3538795437328206</v>
       </c>
       <c r="S8" s="17"/>
-      <c r="V8" s="29"/>
+      <c r="V8" s="36"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -40080,9 +44492,9 @@
         <f t="shared" si="6"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="18">
         <f t="shared" si="1"/>
         <v>-0.90812762746706432</v>
@@ -40135,9 +44547,9 @@
         <f t="shared" si="6"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="18">
         <f t="shared" si="1"/>
         <v>-0.96703648433210398</v>
@@ -40190,9 +44602,9 @@
         <f t="shared" si="6"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="18"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="18">
         <f t="shared" si="1"/>
         <v>-0.99656242696478503</v>
@@ -40245,9 +44657,9 @@
         <f t="shared" si="6"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="18"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="18">
         <f t="shared" si="1"/>
         <v>-0.99580832453906121</v>
@@ -40300,9 +44712,9 @@
         <f t="shared" si="6"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="18"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="18">
         <f t="shared" si="1"/>
         <v>-0.96479709007554404</v>
@@ -40355,9 +44767,9 @@
         <f t="shared" si="6"/>
         <v>1.9198621771937625</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="18"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="18">
         <f t="shared" si="1"/>
         <v>-0.90447098424096561</v>
@@ -40410,9 +44822,9 @@
         <f t="shared" si="6"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="18"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="18">
         <f t="shared" si="1"/>
         <v>-0.81666298523462733</v>
@@ -40472,9 +44884,9 @@
         <f t="shared" ref="J16:J27" si="9">RADIANS(I16)</f>
         <v>2.2689280275926285</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="18"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="18">
         <f t="shared" si="1"/>
         <v>-0.70404109467334486</v>
@@ -40543,9 +44955,9 @@
         <f t="shared" si="9"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="18"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="18">
         <f t="shared" si="1"/>
         <v>-0.57002727171239698</v>
@@ -40605,9 +45017,9 @@
         <f t="shared" si="9"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="18"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="18">
         <f t="shared" si="1"/>
         <v>-0.4186934585481849</v>
@@ -40660,9 +45072,9 @@
         <f t="shared" si="9"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="18"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="18">
         <f t="shared" si="1"/>
         <v>-0.25463785651509951</v>
@@ -40720,9 +45132,9 @@
         <f t="shared" si="9"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="18"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="18">
         <f t="shared" si="1"/>
         <v>-8.2845212064775076E-2</v>
@@ -40782,9 +45194,9 @@
         <f t="shared" si="9"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="18"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="18">
         <f t="shared" si="1"/>
         <v>9.1464642232437068E-2</v>
@@ -40842,9 +45254,9 @@
         <f t="shared" si="9"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="18"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
       <c r="N22" s="18">
         <f t="shared" si="1"/>
         <v>0.26299538965875924</v>
@@ -40902,9 +45314,9 @@
         <f t="shared" si="9"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="18"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="18">
         <f t="shared" si="1"/>
         <v>0.42653515525238805</v>
@@ -40962,9 +45374,9 @@
         <f t="shared" si="9"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="18"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="18">
         <f t="shared" si="1"/>
         <v>0.57711486599087636</v>
@@ -41029,9 +45441,9 @@
         <f t="shared" si="9"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="18"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="18">
         <f t="shared" si="1"/>
         <v>0.71015923356044464</v>
@@ -41089,9 +45501,9 @@
         <f t="shared" si="9"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="18"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
       <c r="N26" s="18">
         <f t="shared" si="1"/>
         <v>0.82162577217619037</v>
@@ -41149,9 +45561,9 @@
         <f t="shared" si="9"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="18"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
       <c r="N27" s="18">
         <f t="shared" si="1"/>
         <v>0.90812762746706421</v>
@@ -41209,9 +45621,9 @@
         <f t="shared" ref="J28:J36" si="10">RADIANS(I28)</f>
         <v>4.3633231299858242</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="18"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
       <c r="N28" s="18">
         <f t="shared" si="1"/>
         <v>0.9670364843321041</v>
@@ -41264,9 +45676,9 @@
         <f t="shared" si="10"/>
         <v>4.5378560551852569</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="18"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
       <c r="N29" s="18">
         <f t="shared" si="1"/>
         <v>0.99656242696478503</v>
@@ -41327,9 +45739,9 @@
         <f t="shared" si="10"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="18"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
       <c r="N30" s="18">
         <f t="shared" si="1"/>
         <v>0.99580832453906121</v>
@@ -41392,9 +45804,9 @@
         <f t="shared" si="10"/>
         <v>4.8869219055841224</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="18"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
       <c r="N31" s="18">
         <f t="shared" si="1"/>
         <v>0.96479709007554415</v>
@@ -41457,9 +45869,9 @@
         <f t="shared" si="10"/>
         <v>5.0614548307835561</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="18"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="18">
         <f t="shared" si="1"/>
         <v>0.9044709842409655</v>
@@ -41526,9 +45938,9 @@
         <f t="shared" si="10"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="18"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
       <c r="N33" s="18">
         <f t="shared" si="1"/>
         <v>0.81666298523462721</v>
@@ -41591,9 +46003,9 @@
         <f t="shared" si="10"/>
         <v>5.4105206811824216</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="18"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
       <c r="N34" s="18">
         <f t="shared" si="1"/>
         <v>0.70404109467334497</v>
@@ -41654,9 +46066,9 @@
         <f t="shared" si="10"/>
         <v>5.5850536063818543</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="18"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
       <c r="N35" s="18">
         <f t="shared" si="1"/>
         <v>0.57002727171239709</v>
@@ -41717,9 +46129,9 @@
         <f t="shared" si="10"/>
         <v>5.7595865315812871</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="18"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
       <c r="N36" s="18">
         <f t="shared" si="1"/>
         <v>0.41869345854818546</v>
@@ -41780,9 +46192,9 @@
         <f>RADIANS(I37)</f>
         <v>5.9341194567807207</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="18"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="18">
         <f t="shared" si="1"/>
         <v>0.25463785651509924</v>
@@ -41843,9 +46255,9 @@
         <f>RADIANS(I38)</f>
         <v>6.1086523819801535</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="18"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
       <c r="N38" s="18">
         <f t="shared" si="1"/>
         <v>8.2845212064775201E-2</v>
@@ -41988,6 +46400,20 @@
       <c r="D45">
         <v>108.74</v>
       </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45">
+        <f>MAX(G3:G38)</f>
+        <v>182.28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45">
+        <f>MAX(B3:B38)</f>
+        <v>0.49828121348239252</v>
+      </c>
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
@@ -42008,6 +46434,20 @@
       <c r="D46">
         <v>132.88999999999999</v>
       </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <f>MIN(G3:G38)</f>
+        <v>-169.8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46">
+        <f>MIN(B3:B38)</f>
+        <v>-0.49828121348239252</v>
+      </c>
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
@@ -42028,6 +46468,20 @@
       <c r="D47">
         <v>152.19999999999999</v>
       </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47">
+        <f>H45-H46</f>
+        <v>352.08000000000004</v>
+      </c>
+      <c r="I47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47">
+        <f>J45-J46</f>
+        <v>0.99656242696478503</v>
+      </c>
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
@@ -42469,12 +46923,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="V3:V6"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="K3:K38"/>
     <mergeCell ref="L3:L38"/>
+    <mergeCell ref="M3:M38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42484,10 +46939,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42500,219 +46955,1284 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="29" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="27">
+        <v>3.9068999999999998</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="28">
+        <v>7.6029999999999999E-4</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="29">
+        <v>-348.91</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="29">
+        <v>9.3939999999999996E-2</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>-0.99911207834369453</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="27">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="22">
-        <v>3.9068999999999998</v>
-      </c>
-      <c r="E4" s="23">
-        <v>7.6029999999999999E-4</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
-        <v>-348.91</v>
-      </c>
-      <c r="E5" s="21">
-        <v>9.3939999999999996E-2</v>
-      </c>
-      <c r="I5">
-        <v>-0.99911207834369453</v>
-      </c>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="E6" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="22">
-        <v>9.4E-2</v>
-      </c>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="10"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="13"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D50">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9">
         <v>12</v>
       </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="9">
         <v>-0.41081288599999999</v>
       </c>
-      <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="9">
         <f>D52*D50</f>
         <v>-4929.7546320000001</v>
       </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="9">
         <f>-0.410812886*1000</f>
         <v>-410.81288599999999</v>
       </c>
-      <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="9">
         <f>D53/G51</f>
         <v>-3.0873747551661102E-2</v>
       </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="9">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D53">
-        <v>152.19999999999999</v>
-      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
-        <v>24</v>
-      </c>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>21</v>
-      </c>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>20</v>
-      </c>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10"/>
     </row>
-    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="36"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="12"/>
       <c r="G65" s="13"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
-      <c r="G66" s="38"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
-      <c r="G67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="39"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G69" s="39"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G70" s="39"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G71" s="40"/>
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -42720,8 +48240,13 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -42729,8 +48254,13 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -42738,8 +48268,13 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -42747,8 +48282,13 @@
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="13"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -42756,8 +48296,13 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -42765,17 +48310,27 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="37"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -42783,62 +48338,351 @@
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="13"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="10"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="10"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="10"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="10"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="13"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="41"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="10"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="10"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -42855,4 +48699,64 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>182.28</v>
+      </c>
+      <c r="F5">
+        <v>0.49828121348239252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>-169.8</v>
+      </c>
+      <c r="F6">
+        <v>-0.49828121348239252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>352.08000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.99656242696478503</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>